--- a/storage/bayut_final_properties.xlsx
+++ b/storage/bayut_final_properties.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,55 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Beds</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Baths</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Area</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Residential Type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Amenities</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deed Location</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Furnishing</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Reactivated Date</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Agency Name</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Agent Name</t>
         </is>
@@ -508,1510 +513,1564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87623752.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694954.html</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20 Room Building For Rent in Tawiq, Riyadh</t>
+          <t>Luxurious apartment in the Towen Towers Tower</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>300,000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>1,499</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>960 Sq. M.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Building</t>
+          <t>120 Sq. M.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>+966555258657</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>حي طويق في مدينة الرياض</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18 March 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Ebdaa Dash Real Estate Services Company</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Fatimah Ahmed</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87614489.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694953.html</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apartment for rent in Al Sahafah, North Riyadh</t>
+          <t>An elegant apartment in Al -Malqa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250,000</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>152 Sq. M.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>114 Sq. M.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>+966-53-503-0022</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Electricity, Fiber Optics, Water Supply, Fixed Phone, Schools, Hospitals, ATM Facility, Mosque, Sewerage</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>حي الصحافة بمدينة الرياض مساحة الوحدة من الأرض 21.89 متر وتختص من المنافع والأجزاء المشتركة بمساحة 99.52 متر</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5 February 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ataat Real Estate Company</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ataaat Real Estate Company</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87625695.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699880.html</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jalamar 3 Tower, Al-Sahafa District, Riyadh</t>
+          <t>Luxury apartment in hall and three bedrooms</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240,000</t>
+          <t>900</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>127 Sq. M.</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>250 Sq. M.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>+966-11-500-2695</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Air Conditioning, Maid Room, Close to Main Roads, Balcony or Terrace, Storage Areas, Central Heating, Electricity, Floor Number: 13, Private Entrance, Water Supply, Sewerage, Flood Drainage</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>حي الصحافة بمدينة الرياض مساحة الوحدة من الأرض 27.54 متر وتختص من المنافع والأجزاء المشتركة بمساحة 35.59 متر</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29 April 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>HOLIDAYS HOME</t>
+          <t>22 July 2025</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Abdulrahman Yousef</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87611284.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699885.html</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apartment For Rent in Al-Uqayq, Riyadh</t>
+          <t>Elegant studio with a hotel nature</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>180,000</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>109 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>60 Sq. M.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>+966-92-003-1816</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Electricity, Fiber Optics, Water Supply, Schools, Hospitals, ATM Facility, Mosque, Shopping Malls</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>حي العقيق بمدينة الرياض مساحة الوحدة من الأرض 62.04 متر وتختص من المنافع والأجزاء المشتركة بمساحة 50.25 متر</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19 March 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01 WORTH</t>
+          <t>22 July 2025</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Yazeed Hisham</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87616241.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699889.html</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apartment For Rent in Al Riyadh, Al Mohammadiah</t>
+          <t>the countryside</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>175,000</t>
+          <t>550</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>129 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>40 Sq. M.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>+966-57-027-8286</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Air Conditioning, Balcony or Terrace, Electricity, Fiber Optics, Private Entrance, Water Supply, Fixed Phone, Parking Spaces: 1, Schools, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Kids Play Area, Swimming Pool, Gym or Health Club, Laundry Facility, Waste Disposal, Sewerage</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>19 March 2025</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>22 July 2025</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87692382.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694944.html</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elegant 2-Bedroom Fully Furnished Apartment in the Heart of Olaya – All-Inclusive Living</t>
+          <t>North flower apartments</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>156,000</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>837 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>40 Sq. M.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>+966-56-910-1091</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Air Conditioning, CCTV Security, Storage Areas, Private garage, Electricity, Fiber Optics, Private Entrance, Water Supply, Elevators in Building: 2, 24 Hours Concierge, Schools, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Kids Play Area, Gym or Health Club, Maintenance Staff, Cleaning Services, Waste Disposal, Sewerage</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>14 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Retaj Al Bait Real Estate Office</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Abdulaziz</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87692381.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694956.html</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3-Bedroom Fully Furnished Apartment in the Heart of Olaya – All-Inclusive Living</t>
+          <t>Spacious apartment, Riyadh, Muhammadiyah district</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>156,000</t>
+          <t>1,100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>837 Sq. M.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>125 Sq. M.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>+966-56-910-1091</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Air Conditioning, Maid Room, Close to Main Roads, CCTV Security, Storage Areas, Private garage, Electricity, Floor Number: 2, Fiber Optics, Private Entrance, Water Supply, Elevators in Building: 2, 24 Hours Concierge, Schools, Hospitals, ATM Facility, Shopping Malls, Close to Metro Station, Kids Play Area, Gym or Health Club, Maintenance Staff, Cleaning Services, Sewerage</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>14 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Retaj Al Bait Real Estate Office</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Abdulaziz</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87638788.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694946.html</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3 Bedroom Apartment - Alnarjis District</t>
+          <t>A sophisticated studio with Master bed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>125,000</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>136 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>+966-92-003-1816</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>حي النرجس بمدينة الرياض مساحة الوحدة من الأرض 78.05 متر وتختص من المنافع والأجزاء المشتركة بمساحة 44.63 متر</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>23 April 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>01 WORTH</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Yazeed Hisham</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87623494.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694912.html</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apartment for Rent in Al Qirawan, North Riyadh</t>
+          <t>Suffic studio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>112 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>40 Sq. M.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>+966-55-778-0876</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>حي القيروان بمدينة الرياض مساحة الوحدة من الأرض 58.4 متر وتختص من المنافع والأجزاء المشتركة بمساحة 52.12 متر</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18 March 2025</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87612861.html</t>
+          <t>https://www.bayut.sa/en/property/details-87694916.html</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>إيجار شهري بحي العارض ،الرياض</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>104 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>+966-56-208-9171</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>حي الندى بمدينة الرياض مساحة الوحدة من الأرض 47.53 متر وتختص من المنافع والأجزاء المشتركة بمساحة 20.21 متر</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30 January 2025</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87593118.html</t>
+          <t>https://www.bayut.sa/en/property/details-87661795.html</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Next to Metro! Beautiful 3BR Apartment in AMAZING Al Sulimaniah neighborhood</t>
+          <t>Al-Yasmeen Neighborhood… Prince Nasser bin Saud Street</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Al Yasmin, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>95 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>21 Sq. M.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>+966-55-250-7976</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+966500272228</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>حي السليمانية بمدينة الرياض .</t>
+          <t>Air Conditioning, Close to Main Roads, Private garage, Electricity, Floor Number, Fiber Optics, Water Supply, Parking Spaces: 20, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Maintenance Staff, Cleaning Services</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>28 January 2025</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Tawfiq Mohammad</t>
-        </is>
-      </c>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11 May 2025</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87619205.html</t>
+          <t>https://www.bayut.sa/en/property/details-87661752.html</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Furnished Apartment for rent in Al Mughrizat, North Riyadh</t>
+          <t>Al Narges neighborhood in front of MBC building</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>110,000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Al Narjis, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,128 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>28 Sq. M.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>+966-11-500-2786</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Air Conditioning, Close to Main Roads, Storage Areas, Electricity, Water Supply, Basement parking, Parking Spaces: 1, Schools, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Maintenance Staff, Cleaning Services, Sewerage</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>+966-50-027-2228</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>27 February 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>OAKTREE Real Estate Company</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Felwa Suliman</t>
-        </is>
-      </c>
+          <t>11 May 2025</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87589265.html</t>
+          <t>https://www.bayut.sa/en/property/details-87621746.html</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apartment for rent in Al Aqiq, North Riyadh</t>
+          <t>Apartment in North Riyadh，Al Malqa 3 bedrooms 790 SAR - 87621746</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96,000</t>
+          <t>790</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Al Malqa, North Riyadh, Riyadh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>150 Sq. M.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>125 Sq. M.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>+966-58-310-1987</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>+966-11-500-2431</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Air Conditioning, Close to Main Roads, Electricity, Fiber Optics, Private Entrance, Water Supply, Fixed Phone, Parking Spaces: 1, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Inma Al Khalidiya Real Estate Office</t>
+          <t>9 July 2025</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Mohammed</t>
-        </is>
-      </c>
+          <t>Najmat Al Tamayuz Real Estate Company</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87680415.html</t>
+          <t>https://www.bayut.sa/en/property/details-87621387.html</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Elegant apartment for rent consisting of 3 bedrooms</t>
+          <t>Daily rental apartment in Al Malqa, North Riyadh 50002595</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>85,000</t>
+          <t>790</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Al Malqa, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>134 Sq. M.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>120 Sq. M.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>+966-54-555-5521</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Electricity, Water Supply, Schools, Hospitals, ATM Facility, Mosque, Sewerage</t>
+          <t>+966-11-500-2431</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>حي الملك عبدالله بمدينة الرياض .</t>
+          <t>Air Conditioning, Close to Main Roads, Balcony or Terrace, CCTV Security, Electricity, Fiber Optics, Private Entrance, Smart Home System, Water Supply, Fixed Phone, Parking Spaces, Security Staff, Elevators in Building, 24 Hours Concierge, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Gym or Health Club, Maintenance Staff, Cleaning Services</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>19 June 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Al Milyaran Real Estate Office</t>
+          <t>9 July 2025</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ALMILYARAN REAL STATE</t>
-        </is>
-      </c>
+          <t>Najmat Al Tamayuz Real Estate Company</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87606761.html</t>
+          <t>https://www.bayut.sa/en/property/details-87682420.html</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5 Bedrooms Apartment For Rent Riyadh</t>
+          <t>Independent room + kitchen + bathroom for daily rent in a prime location</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Al Aqiq, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>250 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>40 Sq. M.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>+966-50-411-4868</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>+966-54-104-4670</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21 February 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Aali office for real estate services</t>
+          <t>25 June 2025</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Bandar Abdulaziz</t>
+          <t>Kan Construction and Real Estate Company</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Naif Saad</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87686369.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699865.html</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3 Bedroom Apartment For Rent in Al Malqa, Riyadh</t>
+          <t>LP110.2 | Livedin | Bright Studio | AlAqiq</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>75,000</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Al Aqiq, North Riyadh, Riyadh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>107 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>60 Sq. M.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>+966-11-500-8776</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>حي الملقا بمدينة الرياض مساحة الوحدة من الأرض 53.9 متر وتختص من المنافع والأجزاء المشتركة بمساحة 26.18 متر</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>8 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Al-Rehab Real Estate Development and Investment Company</t>
+          <t>22 July 2025</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Nawaf Mousa</t>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Livedin</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87650803.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699862.html</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Furnished Hotel Apartments in Al Rawdah</t>
+          <t>LP110.1 | Livedin | Modern Studio | Aqiq | Heart of Riyadh</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>72,000</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Al Rimal, East Riyadh, Riyadh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>55 Sq. M.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>+966-58-190-2816</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Air Conditioning, Electricity, Floor Number, Fiber Optics, Private Entrance, Water Supply</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6 May 2025</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>22 July 2025</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Livedin</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87622560.html</t>
+          <t>https://www.bayut.sa/en/property/details-87695116.html</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jasmine Studio</t>
+          <t>LP126.2 Livedin | Stylish Studio | Near KAFD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>146 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>+966-11-500-2680</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Air Conditioning, Close to Main Roads, Electricity, Water Supply, Cleaning Services, Sewerage</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Furnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12 March 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Al Hassad Real Estate Investments Company</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Abdullah Zaid</t>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Livedin</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87607333.html</t>
+          <t>https://www.bayut.sa/en/property/details-87695114.html</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apartment for rent in  Al Arid, North Riyadh</t>
+          <t>LP126.1 Livedin | Cozy &amp; Modern Studio | Near King Fahd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>68,000</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3,150 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>+966-50-355-5453</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Air Conditioning, Electricity, Floor Number, Fiber Optics, Private Entrance, Water Supply</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>21 February 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Khaled Abdulaziz Al Rashed Real Estate</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Khaled Abdulaziz</t>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Livedin</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87606148.html</t>
+          <t>https://www.bayut.sa/en/property/details-87695079.html</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Apartment for rent in Qurtubah, east of Riyadh</t>
+          <t>LP132 Livedin | Modern &amp; Stylish Studio | Kitchen | Aqiq</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>65,000</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Al Aqiq, North Riyadh, Riyadh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>134 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>+966-56-331-1244</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Close to Main Roads, Balcony or Terrace, Storage Areas, Electricity, Private Entrance, Water Supply, Schools, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station, Barbeque Area, Sewerage</t>
+          <t>+966-55-993-5966</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>حي قرطبة بمدينة الرياض .</t>
+          <t>Air Conditioning, Electricity, Floor Number, Fiber Optics, Private Entrance, Water Supply</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>30 December 2024</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Mohammed Saleh Al Qubaisi Real Estate Office</t>
+          <t>21 July 2025</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Mohammed Saleh</t>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Livedin</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87686302.html</t>
+          <t>https://www.bayut.sa/en/property/details-87670139.html</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3 Bedroom Apartment For Rent in Al Narjis, Riyadh</t>
+          <t>LP100 | Livedin | Charming Studio in Al-Aqiq | Self Entry</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>65,000</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Al Aqiq, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>104 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>25 Sq. M.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>+966-11-500-8776</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>حي النرجس بمدينة الرياض مساحة الوحدة من الأرض 52.42 متر</t>
+          <t>Air Conditioning, CCTV Security, Fireplace Utility, Floor Number, Fiber Optics, First Aid Medical Center</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>8 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Al-Rehab Real Estate Development and Investment Company</t>
+          <t>20 May 2025</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Nawaf Mousa</t>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Livedin</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87684128.html</t>
+          <t>https://www.bayut.sa/en/property/details-87700122.html</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3 Bedroom Apartment For Rent in Al Narjis, Riyadh</t>
+          <t>Modern apartment</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>65,000</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>125 Sq. M.</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>90 Sq. M.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>+966-11-500-2333</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>حي النرجس بمدينة الرياض مساحة الوحدة من الأرض 66.81 متر وتختص من المنافع والأجزاء المشتركة بمساحة 43.2 متر</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Awtad Al Aqar Real Estate Office</t>
+          <t>23 July 2025</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Saad Abdullah</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87686352.html</t>
+          <t>https://www.bayut.sa/en/property/details-87699886.html</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2 Bedroom Apartment For Rent in Al Narjis, Riyadh</t>
+          <t>Quiet studio with a Master bed and a side session</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2021,65 +2080,66 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>85 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>30 Sq. M.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>+966-11-500-8776</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8 July 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Al-Rehab Real Estate Development and Investment Company</t>
+          <t>22 July 2025</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Nawaf Mousa</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87597321.html</t>
+          <t>https://www.bayut.sa/en/property/details-87680941.html</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2 bedrooms residential building for rent in Al Mansiyya, Riyadh</t>
+          <t>Elegant studio with smart entry</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2089,111 +2149,1794 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>600 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Residential Building</t>
+          <t>65 Sq. M.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>+966-55-250-2626</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>حي المونسية بمدينة الرياض .</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>21 February 2025</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr"/>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>22 June 2025</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Abdulrahman Salem</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.bayut.sa/en/property/details-87630536.html</t>
+          <t>https://www.bayut.sa/en/property/details-87680938.html</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apartment for rent in Al Wizarat, Central Riyadh</t>
+          <t>Elegant studio with a hotel nature</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>59,997</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Riyadh</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,467 Sq. M.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>50 Sq. M.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>+966-11-500-8836</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Electricity, Water Supply, Fixed Phone, Schools, Hospitals, ATM Facility, Mosque, Sewerage</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>حي الوزارات بمدينة الرياض .</t>
-        </is>
-      </c>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Unfurnished</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13 April 2025</t>
+          <t>Furnished</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Miat Real Estate Company</t>
+          <t>22 June 2025</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>One hundred real estate company</t>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694919.html</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A quiet apartment in the sand</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>35 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694948.html</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Raq Studio Enter Narcissus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694943.html</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Apartment with two rooms and a lounge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>160 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694949.html</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A room and a hall with a private courtyard.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>50 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694358.html</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Al Baha apartment</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>900 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694359.html</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1BR apartment with living room</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>73 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694362.html</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Modern apartment, smart entry</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>75 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694367.html</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Studio</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>35 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rest House</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694360.html</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Stylish studio with self -entry 1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694374.html</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Room and hall +surface - next to the polyvard (self -entry)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>100 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>19 July 2025</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680934.html</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Luxury apartment bedroom, hall and bathroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>45 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>22 June 2025</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87694914.html</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>luxury studio</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Contact for price</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>50 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>21 July 2025</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680634.html</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>شقه غرفه وصاله</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>100 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20 June 2025</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680622.html</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Luxurious studio with a sides and self -entry</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>35 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>20 June 2025</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680936.html</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Elegant studio with self -entry</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>22 June 2025</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87663110.html</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Luxury opal paradise</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>80 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>12 May 2025</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87680633.html</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>20 June 2025</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87661038.html</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Modern self-entry apartment overlooking the boulevard</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>100 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>10 May 2025</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87679910.html</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Med Night Studio</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>55 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>18 June 2025</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87622196.html</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Furnished Room for Daily Rental in Al Wadi, North Riyadh 50018559</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Al Wadi, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>35 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>+966-54-004-5449</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>25 March 2025</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87700121.html</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Norsin</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Riyadh</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>112 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>23 July 2025</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Mabet</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Mabet Customer Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87683119.html</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1 Bedroom Rest House For Rent Al Rawdah</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1,100</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>East Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Rest House</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>+966-11-500-2325</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>23 July 2025</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87700147.html</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Studio Apartment For Rent in Al Janadriyah, Riyadh</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Al Janadriyah, East Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>+966-11-500-2325</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>23 July 2025</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87672264.html</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Livedin-Chic Studio Apartment in King Faisal District</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>King Faisal, East Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>27 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>+966-55-993-5966</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>22 May 2025</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Livedin</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Livedin</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.bayut.sa/en/property/details-87637259.html</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Luxurious furnished apartment for rent in Al Narges neighborhood - Riyadh 50013560</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5,500</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Al Narjis, North Riyadh, Riyadh</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>65 Sq. M.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>+966-50-092-9615</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Air Conditioning, Close to Main Roads, Electricity, Water Supply, Hospitals, ATM Facility, Mosque, Shopping Malls, Close to Metro Station</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Furnished</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>21 April 2025</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Abdullah Suleiman Bin Abdulrahman Al-Gumaiz</t>
         </is>
       </c>
     </row>
